--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Desktop\GIRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D29BD9-5B5F-4766-B506-E0474366357F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E9D26-F306-4421-84E0-3259E588966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="164">
   <si>
     <t>Video Title</t>
   </si>
@@ -480,6 +480,64 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Delay Factors</t>
+  </si>
+  <si>
+    <t>Timings</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>10 p.m. tonight to 5 p.m. tomorrow, weather, other notes about firefighting personnel</t>
+  </si>
+  <si>
+    <t>6:30 p.m. start time, various locations mentioned</t>
+  </si>
+  <si>
+    <t>24 hrs since Palisades start, SE corner of Lake and Mariposa</t>
+  </si>
+  <si>
+    <t>Reporting from 2600 block of New York Drive, Altadena; evacuation area: LAKE AVENUE ON
+THE WEST, THE EATON CANYON
+GOLF COURSE TO THE. EAST AND
+WASHINGTON BOULEVARD TO THE
+SOUTH</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>6:30 p.m. start time, roads to evacuate: Kanile'a
+Canyon Road, Outpost Lane, Glen
+Springs, Coolidge,
+Roosevelt, Vanatta,
+Can Claire
+Drive.</t>
+  </si>
+  <si>
+    <t>Documentation, making sure homes are OK</t>
+  </si>
+  <si>
+    <t>Reporting from Lake Avenue and Mirada
+Place</t>
+  </si>
+  <si>
+    <t>Reporting from Lake Avenue; Elliot Middle School</t>
+  </si>
+  <si>
+    <t>Yes, long video</t>
+  </si>
+  <si>
+    <t>Long video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started around Pedro Marada Dr., 10:30 a.m. </t>
   </si>
 </sst>
 </file>
@@ -560,7 +618,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -569,10 +627,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,24 +939,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="35" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="93.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,11 +981,17 @@
       <c r="G1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -940,11 +1010,20 @@
       <c r="F2" t="s">
         <v>141</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -963,11 +1042,20 @@
       <c r="F3" t="s">
         <v>141</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -986,11 +1074,20 @@
       <c r="F4" t="s">
         <v>142</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1009,11 +1106,20 @@
       <c r="F5" t="s">
         <v>141</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1032,11 +1138,14 @@
       <c r="F6" t="s">
         <v>141</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1214,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1147,11 +1256,20 @@
       <c r="F11" t="s">
         <v>143</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1170,11 +1288,17 @@
       <c r="F12" t="s">
         <v>143</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1193,11 +1317,20 @@
       <c r="F13" t="s">
         <v>143</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H13" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1216,11 +1349,20 @@
       <c r="F14" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1239,11 +1381,20 @@
       <c r="F15" t="s">
         <v>143</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1285,11 +1436,20 @@
       <c r="F17" t="s">
         <v>143</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1308,11 +1468,20 @@
       <c r="F18" t="s">
         <v>143</v>
       </c>
+      <c r="G18" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1331,11 +1500,20 @@
       <c r="F19" t="s">
         <v>143</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H19" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1354,11 +1532,20 @@
       <c r="F20" t="s">
         <v>143</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1377,11 +1564,20 @@
       <c r="F21" t="s">
         <v>143</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1400,11 +1596,20 @@
       <c r="F22" t="s">
         <v>141</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1423,11 +1628,20 @@
       <c r="F23" t="s">
         <v>142</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H23" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1446,11 +1660,20 @@
       <c r="F24" t="s">
         <v>142</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1469,11 +1692,20 @@
       <c r="F25" t="s">
         <v>141</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H25" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1515,11 +1747,17 @@
       <c r="F27" t="s">
         <v>141</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J27" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1780,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1565,7 +1803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1826,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1611,7 +1849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2057,8 +2295,28 @@
     <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G2" r:id="rId48" xr:uid="{243088A2-8D87-4860-907C-F5450B201338}"/>
+    <hyperlink ref="G3" r:id="rId49" xr:uid="{2CA8F772-664F-494D-831E-D2B1FD565B97}"/>
+    <hyperlink ref="G4" r:id="rId50" xr:uid="{033DDEFD-F9EC-43F2-8DCC-914E31400B69}"/>
+    <hyperlink ref="G5" r:id="rId51" xr:uid="{81B3372F-30FA-4866-9D5C-8838B4A74316}"/>
+    <hyperlink ref="G6" r:id="rId52" xr:uid="{1B626DAA-3D44-48A5-A630-BE0E8C0C6F76}"/>
+    <hyperlink ref="G11" r:id="rId53" xr:uid="{F55633DA-CDCF-4799-8E92-434641FB3A46}"/>
+    <hyperlink ref="G12" r:id="rId54" xr:uid="{BF756B86-089A-4A44-AECB-D0987B540FCB}"/>
+    <hyperlink ref="G13" r:id="rId55" xr:uid="{5B333766-EE73-4C0E-B6FD-FE655FDA0F01}"/>
+    <hyperlink ref="G14" r:id="rId56" xr:uid="{8DE75C7C-934E-4BD3-8E39-9CF9AF8FBFF8}"/>
+    <hyperlink ref="G15" r:id="rId57" xr:uid="{3E5E4E72-D4FB-40C3-99E9-A674E9F3CF00}"/>
+    <hyperlink ref="G17" r:id="rId58" xr:uid="{C4F6C3C2-EC1A-4567-9E18-917A7F9698D4}"/>
+    <hyperlink ref="G18" r:id="rId59" xr:uid="{6EFA84D1-9378-419C-B7BC-5E54F824C1B3}"/>
+    <hyperlink ref="G19" r:id="rId60" xr:uid="{E8ADD3DC-7BED-42A4-8F7C-41BD237CA1B6}"/>
+    <hyperlink ref="G20" r:id="rId61" xr:uid="{2BA28F13-595C-439D-8FCC-D8CDA71ADBEE}"/>
+    <hyperlink ref="G21" r:id="rId62" xr:uid="{438BD8D7-ED95-4586-B826-2FBE21601DF5}"/>
+    <hyperlink ref="G22" r:id="rId63" xr:uid="{BB75DFB6-5586-467F-A113-A267A3A0B22F}"/>
+    <hyperlink ref="G23" r:id="rId64" xr:uid="{2F50E3F6-20D7-4441-8DEF-7519399E7D3E}"/>
+    <hyperlink ref="G24" r:id="rId65" xr:uid="{85F39CE1-8FE0-40F1-929B-7E10CFB67039}"/>
+    <hyperlink ref="G25" r:id="rId66" xr:uid="{2C873F57-1F64-4FA1-8C2C-60FA87FD199E}"/>
+    <hyperlink ref="G27" r:id="rId67" xr:uid="{DFD010D0-23FB-4896-BF92-5FCBEEAF75D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId48"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId68"/>
 </worksheet>
 </file>
--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E9D26-F306-4421-84E0-3259E588966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72940F27-899C-409B-96AE-B12520FB71CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="170">
   <si>
     <t>Video Title</t>
   </si>
@@ -503,41 +503,50 @@
     <t>24 hrs since Palisades start, SE corner of Lake and Mariposa</t>
   </si>
   <si>
-    <t>Reporting from 2600 block of New York Drive, Altadena; evacuation area: LAKE AVENUE ON
-THE WEST, THE EATON CANYON
-GOLF COURSE TO THE. EAST AND
-WASHINGTON BOULEVARD TO THE
-SOUTH</t>
-  </si>
-  <si>
     <t>Animals</t>
   </si>
   <si>
+    <t>Documentation, making sure homes are OK</t>
+  </si>
+  <si>
+    <t>Reporting from Lake Avenue; Elliot Middle School</t>
+  </si>
+  <si>
+    <t>Yes, long video</t>
+  </si>
+  <si>
+    <t>Long video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started around Pedro Marada Dr., 10:30 a.m. </t>
+  </si>
+  <si>
     <t>6:30 p.m. start time, roads to evacuate: Kanile'a
-Canyon Road, Outpost Lane, Glen
-Springs, Coolidge,
-Roosevelt, Vanatta,
-Can Claire
-Drive.</t>
-  </si>
-  <si>
-    <t>Documentation, making sure homes are OK</t>
-  </si>
-  <si>
-    <t>Reporting from Lake Avenue and Mirada
-Place</t>
-  </si>
-  <si>
-    <t>Reporting from Lake Avenue; Elliot Middle School</t>
-  </si>
-  <si>
-    <t>Yes, long video</t>
-  </si>
-  <si>
-    <t>Long video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Started around Pedro Marada Dr., 10:30 a.m. </t>
+Canyon Road, Outpost Lane, Glen Springs, Coolidge, Roosevelt, Vanatta, Can Claire Drive.</t>
+  </si>
+  <si>
+    <t>Reporting from Lake Avenue and Mirada Place</t>
+  </si>
+  <si>
+    <t>Reporting from 2600 block of New York Drive, Altadena; evacuation area:</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Music only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curfew 6:00 p.m.-6:00 a.m, residents coming back; locations: Calaveras Street just east of Lake Avenue, Ganesa/Mariposa Ave., Elliot Middle School </t>
+  </si>
+  <si>
+    <t>Deaf interp.</t>
+  </si>
+  <si>
+    <t>No audio</t>
+  </si>
+  <si>
+    <t>Started near Altadena/Midwick Dr., 19,000 under evacuation, 1,000 acres in 6 hours, evac. orders north of New York Drive, east of Altadena Drive west of Sierra madre, Villa Avenue, and eventually this is expanded to parts of Arcadia and Pasadena.</t>
   </si>
 </sst>
 </file>
@@ -941,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="35" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,6 +1153,12 @@
       <c r="H6" t="s">
         <v>147</v>
       </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1164,8 +1179,17 @@
       <c r="F7" t="s">
         <v>141</v>
       </c>
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
       <c r="H7" t="s">
         <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1187,8 +1211,17 @@
       <c r="F8" t="s">
         <v>143</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H8" t="s">
         <v>147</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1210,8 +1243,17 @@
       <c r="F9" t="s">
         <v>141</v>
       </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
       <c r="H9" t="s">
         <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1233,8 +1275,17 @@
       <c r="F10" t="s">
         <v>143</v>
       </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
       <c r="H10" t="s">
         <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1294,11 +1345,14 @@
       <c r="H12" t="s">
         <v>147</v>
       </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
       <c r="J12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1327,10 +1381,10 @@
         <v>151</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1356,13 +1410,13 @@
         <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1388,10 +1442,10 @@
         <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1413,8 +1467,17 @@
       <c r="F16" t="s">
         <v>143</v>
       </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
       <c r="H16" t="s">
         <v>147</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1478,7 +1541,7 @@
         <v>151</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1603,10 +1666,10 @@
         <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1635,10 +1698,10 @@
         <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1753,11 +1816,14 @@
       <c r="H27" t="s">
         <v>147</v>
       </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
       <c r="J27" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1842,17 @@
       <c r="F28" t="s">
         <v>143</v>
       </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
       <c r="H28" t="s">
         <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -2253,70 +2328,71 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G2" r:id="rId48" xr:uid="{243088A2-8D87-4860-907C-F5450B201338}"/>
-    <hyperlink ref="G3" r:id="rId49" xr:uid="{2CA8F772-664F-494D-831E-D2B1FD565B97}"/>
-    <hyperlink ref="G4" r:id="rId50" xr:uid="{033DDEFD-F9EC-43F2-8DCC-914E31400B69}"/>
-    <hyperlink ref="G5" r:id="rId51" xr:uid="{81B3372F-30FA-4866-9D5C-8838B4A74316}"/>
-    <hyperlink ref="G6" r:id="rId52" xr:uid="{1B626DAA-3D44-48A5-A630-BE0E8C0C6F76}"/>
-    <hyperlink ref="G11" r:id="rId53" xr:uid="{F55633DA-CDCF-4799-8E92-434641FB3A46}"/>
-    <hyperlink ref="G12" r:id="rId54" xr:uid="{BF756B86-089A-4A44-AECB-D0987B540FCB}"/>
-    <hyperlink ref="G13" r:id="rId55" xr:uid="{5B333766-EE73-4C0E-B6FD-FE655FDA0F01}"/>
-    <hyperlink ref="G14" r:id="rId56" xr:uid="{8DE75C7C-934E-4BD3-8E39-9CF9AF8FBFF8}"/>
-    <hyperlink ref="G15" r:id="rId57" xr:uid="{3E5E4E72-D4FB-40C3-99E9-A674E9F3CF00}"/>
-    <hyperlink ref="G17" r:id="rId58" xr:uid="{C4F6C3C2-EC1A-4567-9E18-917A7F9698D4}"/>
-    <hyperlink ref="G18" r:id="rId59" xr:uid="{6EFA84D1-9378-419C-B7BC-5E54F824C1B3}"/>
-    <hyperlink ref="G19" r:id="rId60" xr:uid="{E8ADD3DC-7BED-42A4-8F7C-41BD237CA1B6}"/>
-    <hyperlink ref="G20" r:id="rId61" xr:uid="{2BA28F13-595C-439D-8FCC-D8CDA71ADBEE}"/>
-    <hyperlink ref="G21" r:id="rId62" xr:uid="{438BD8D7-ED95-4586-B826-2FBE21601DF5}"/>
-    <hyperlink ref="G22" r:id="rId63" xr:uid="{BB75DFB6-5586-467F-A113-A267A3A0B22F}"/>
-    <hyperlink ref="G23" r:id="rId64" xr:uid="{2F50E3F6-20D7-4441-8DEF-7519399E7D3E}"/>
-    <hyperlink ref="G24" r:id="rId65" xr:uid="{85F39CE1-8FE0-40F1-929B-7E10CFB67039}"/>
-    <hyperlink ref="G25" r:id="rId66" xr:uid="{2C873F57-1F64-4FA1-8C2C-60FA87FD199E}"/>
-    <hyperlink ref="G27" r:id="rId67" xr:uid="{DFD010D0-23FB-4896-BF92-5FCBEEAF75D1}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G2" r:id="rId43" xr:uid="{243088A2-8D87-4860-907C-F5450B201338}"/>
+    <hyperlink ref="G3" r:id="rId44" xr:uid="{2CA8F772-664F-494D-831E-D2B1FD565B97}"/>
+    <hyperlink ref="G4" r:id="rId45" xr:uid="{033DDEFD-F9EC-43F2-8DCC-914E31400B69}"/>
+    <hyperlink ref="G5" r:id="rId46" xr:uid="{81B3372F-30FA-4866-9D5C-8838B4A74316}"/>
+    <hyperlink ref="G6" r:id="rId47" xr:uid="{1B626DAA-3D44-48A5-A630-BE0E8C0C6F76}"/>
+    <hyperlink ref="G11" r:id="rId48" xr:uid="{F55633DA-CDCF-4799-8E92-434641FB3A46}"/>
+    <hyperlink ref="G12" r:id="rId49" xr:uid="{BF756B86-089A-4A44-AECB-D0987B540FCB}"/>
+    <hyperlink ref="G13" r:id="rId50" xr:uid="{5B333766-EE73-4C0E-B6FD-FE655FDA0F01}"/>
+    <hyperlink ref="G14" r:id="rId51" xr:uid="{8DE75C7C-934E-4BD3-8E39-9CF9AF8FBFF8}"/>
+    <hyperlink ref="G15" r:id="rId52" xr:uid="{3E5E4E72-D4FB-40C3-99E9-A674E9F3CF00}"/>
+    <hyperlink ref="G17" r:id="rId53" xr:uid="{C4F6C3C2-EC1A-4567-9E18-917A7F9698D4}"/>
+    <hyperlink ref="G18" r:id="rId54" xr:uid="{6EFA84D1-9378-419C-B7BC-5E54F824C1B3}"/>
+    <hyperlink ref="G19" r:id="rId55" xr:uid="{E8ADD3DC-7BED-42A4-8F7C-41BD237CA1B6}"/>
+    <hyperlink ref="G20" r:id="rId56" xr:uid="{2BA28F13-595C-439D-8FCC-D8CDA71ADBEE}"/>
+    <hyperlink ref="G21" r:id="rId57" xr:uid="{438BD8D7-ED95-4586-B826-2FBE21601DF5}"/>
+    <hyperlink ref="G22" r:id="rId58" xr:uid="{BB75DFB6-5586-467F-A113-A267A3A0B22F}"/>
+    <hyperlink ref="G23" r:id="rId59" xr:uid="{2F50E3F6-20D7-4441-8DEF-7519399E7D3E}"/>
+    <hyperlink ref="G24" r:id="rId60" xr:uid="{85F39CE1-8FE0-40F1-929B-7E10CFB67039}"/>
+    <hyperlink ref="G25" r:id="rId61" xr:uid="{2C873F57-1F64-4FA1-8C2C-60FA87FD199E}"/>
+    <hyperlink ref="G27" r:id="rId62" xr:uid="{DFD010D0-23FB-4896-BF92-5FCBEEAF75D1}"/>
+    <hyperlink ref="C11" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId68" xr:uid="{71AC410F-95C8-41B0-9454-28B9A392187C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId68"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
 </worksheet>
 </file>
--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72940F27-899C-409B-96AE-B12520FB71CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C31150-4602-46CE-9FE0-3EA0B8FF611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="172">
   <si>
     <t>Video Title</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>Started near Altadena/Midwick Dr., 19,000 under evacuation, 1,000 acres in 6 hours, evac. orders north of New York Drive, east of Altadena Drive west of Sierra madre, Villa Avenue, and eventually this is expanded to parts of Arcadia and Pasadena.</t>
+  </si>
+  <si>
+    <t>Power cuts</t>
+  </si>
+  <si>
+    <t>Nursing home at Altadena and Washington</t>
   </si>
 </sst>
 </file>
@@ -950,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="71" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1874,8 +1880,17 @@
       <c r="F29" t="s">
         <v>143</v>
       </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
       <c r="H29" t="s">
         <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">

--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C31150-4602-46CE-9FE0-3EA0B8FF611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6C5E5-FF11-4E5A-A37E-6CDDF0BB495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="175">
   <si>
     <t>Video Title</t>
   </si>
@@ -483,9 +483,6 @@
   </si>
   <si>
     <t>Delay Factors</t>
-  </si>
-  <si>
-    <t>Timings</t>
   </si>
   <si>
     <t>Link</t>
@@ -553,6 +550,18 @@
   </si>
   <si>
     <t>Nursing home at Altadena and Washington</t>
+  </si>
+  <si>
+    <t>Left around midnight, came back at 4:00 a.m., residents assessing damage</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>Sunset/Alma Real Drive</t>
+  </si>
+  <si>
+    <t>Timings / Locations / Notes</t>
   </si>
 </sst>
 </file>
@@ -956,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="71" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,7 +1012,7 @@
         <v>148</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1026,16 +1035,16 @@
         <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
         <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1058,16 +1067,16 @@
         <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
         <v>147</v>
       </c>
       <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
         <v>151</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1090,16 +1099,16 @@
         <v>142</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
         <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1122,16 +1131,16 @@
         <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
         <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1154,16 +1163,16 @@
         <v>141</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1186,16 +1195,16 @@
         <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
         <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1218,16 +1227,16 @@
         <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
         <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1250,16 +1259,16 @@
         <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
         <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1282,16 +1291,16 @@
         <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
         <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1314,16 +1323,16 @@
         <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
         <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1346,16 +1355,16 @@
         <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
         <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1378,16 +1387,16 @@
         <v>143</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
         <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1410,16 +1419,16 @@
         <v>143</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1442,16 +1451,16 @@
         <v>143</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" t="s">
         <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1474,16 +1483,16 @@
         <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
         <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1506,16 +1515,16 @@
         <v>143</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
         <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1538,16 +1547,16 @@
         <v>143</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
         <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1570,16 +1579,16 @@
         <v>143</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
         <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1602,16 +1611,16 @@
         <v>143</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
         <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1634,16 +1643,16 @@
         <v>143</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
         <v>147</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1666,16 +1675,16 @@
         <v>141</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1698,16 +1707,16 @@
         <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" t="s">
         <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1730,16 +1739,16 @@
         <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
         <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1762,16 +1771,16 @@
         <v>141</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
         <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1817,16 +1826,16 @@
         <v>141</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
         <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1849,16 +1858,16 @@
         <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
         <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1881,16 +1890,16 @@
         <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
         <v>147</v>
       </c>
       <c r="I29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1912,8 +1921,17 @@
       <c r="F30" t="s">
         <v>143</v>
       </c>
+      <c r="G30" t="s">
+        <v>149</v>
+      </c>
       <c r="H30" t="s">
         <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1935,8 +1953,17 @@
       <c r="F31" t="s">
         <v>141</v>
       </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
       <c r="H31" t="s">
         <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1958,11 +1985,20 @@
       <c r="F32" t="s">
         <v>141</v>
       </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
       <c r="H32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1981,11 +2017,20 @@
       <c r="F33" t="s">
         <v>141</v>
       </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
       <c r="H33" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2008,7 +2053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +2076,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2054,7 +2099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2100,7 +2145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2123,7 +2168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2146,7 +2191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2192,7 +2237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2260,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2238,7 +2283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2261,7 +2306,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2284,7 +2329,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2307,7 +2352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>

--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6C5E5-FF11-4E5A-A37E-6CDDF0BB495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F672FC1F-6BBA-4E69-8F5B-B4972410CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="176">
   <si>
     <t>Video Title</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Timings / Locations / Notes</t>
+  </si>
+  <si>
+    <t>Sunset Boulevard at Chautauqua,  Rivas Canyon, Rustic Lane, Sunset Boulevard from the 405 freeway, Sylmar, evacuated at midnight last night from Santa Clarita</t>
   </si>
 </sst>
 </file>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2049,8 +2052,17 @@
       <c r="F34" t="s">
         <v>141</v>
       </c>
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
       <c r="H34" t="s">
         <v>147</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2072,8 +2084,17 @@
       <c r="F35" t="s">
         <v>141</v>
       </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
       <c r="H35" t="s">
         <v>147</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">

--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F672FC1F-6BBA-4E69-8F5B-B4972410CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04634AF7-6550-430C-965F-2C9358274E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="182">
   <si>
     <t>Video Title</t>
   </si>
@@ -552,9 +552,6 @@
     <t>Nursing home at Altadena and Washington</t>
   </si>
   <si>
-    <t>Left around midnight, came back at 4:00 a.m., residents assessing damage</t>
-  </si>
-  <si>
     <t>Same as above</t>
   </si>
   <si>
@@ -565,6 +562,27 @@
   </si>
   <si>
     <t>Sunset Boulevard at Chautauqua,  Rivas Canyon, Rustic Lane, Sunset Boulevard from the 405 freeway, Sylmar, evacuated at midnight last night from Santa Clarita</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Left around midnight, neighbor's house on fire, came back at 4:00 a.m., residents assessing damage</t>
+  </si>
+  <si>
+    <t>Smoke, nowhere to go, Eaton fire: nursing home being evacuated</t>
+  </si>
+  <si>
+    <t>No transcript</t>
+  </si>
+  <si>
+    <t>Dad evacuated, traffic, abandoning cars</t>
+  </si>
+  <si>
+    <t>Backyard on fire, paintings</t>
+  </si>
+  <si>
+    <t>Did not evacuate because thought fire would be contained</t>
   </si>
 </sst>
 </file>
@@ -968,22 +986,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="71" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="99.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="93.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1015,7 +1033,7 @@
         <v>148</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1934,7 +1952,7 @@
         <v>150</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1989,7 +2007,7 @@
         <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H32" t="s">
         <v>147</v>
@@ -2030,7 +2048,7 @@
         <v>150</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2094,7 +2112,7 @@
         <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2116,8 +2134,17 @@
       <c r="F36" t="s">
         <v>141</v>
       </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
       <c r="H36" t="s">
         <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2139,8 +2166,17 @@
       <c r="F37" t="s">
         <v>141</v>
       </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
       <c r="H37" t="s">
         <v>147</v>
+      </c>
+      <c r="I37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2162,8 +2198,17 @@
       <c r="F38" t="s">
         <v>141</v>
       </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
       <c r="H38" t="s">
         <v>147</v>
+      </c>
+      <c r="I38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2185,8 +2230,17 @@
       <c r="F39" t="s">
         <v>141</v>
       </c>
+      <c r="G39" t="s">
+        <v>149</v>
+      </c>
       <c r="H39" t="s">
         <v>147</v>
+      </c>
+      <c r="I39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2208,8 +2262,17 @@
       <c r="F40" t="s">
         <v>142</v>
       </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
       <c r="H40" t="s">
         <v>147</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2231,8 +2294,17 @@
       <c r="F41" t="s">
         <v>141</v>
       </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
       <c r="H41" t="s">
         <v>147</v>
+      </c>
+      <c r="I41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2254,8 +2326,17 @@
       <c r="F42" t="s">
         <v>141</v>
       </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
       <c r="H42" t="s">
         <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2277,8 +2358,17 @@
       <c r="F43" t="s">
         <v>141</v>
       </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
       <c r="H43" t="s">
         <v>147</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">

--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04634AF7-6550-430C-965F-2C9358274E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E5867-5719-4E77-AF17-0ED11AAE3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="186">
   <si>
     <t>Video Title</t>
   </si>
@@ -583,6 +583,18 @@
   </si>
   <si>
     <t>Did not evacuate because thought fire would be contained</t>
+  </si>
+  <si>
+    <t>Evacuated, trapped by fires coming down Sunset Blvd.</t>
+  </si>
+  <si>
+    <t>Elderly man evacuating with daughter</t>
+  </si>
+  <si>
+    <t>Horses</t>
+  </si>
+  <si>
+    <t>Reporting around 2:30 p.m., Sunset Blvd.</t>
   </si>
 </sst>
 </file>
@@ -984,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="71" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2390,8 +2402,17 @@
       <c r="F44" t="s">
         <v>142</v>
       </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
       <c r="H44" t="s">
         <v>147</v>
+      </c>
+      <c r="I44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -2413,8 +2434,17 @@
       <c r="F45" t="s">
         <v>141</v>
       </c>
+      <c r="G45" t="s">
+        <v>149</v>
+      </c>
       <c r="H45" t="s">
         <v>147</v>
+      </c>
+      <c r="I45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2436,8 +2466,17 @@
       <c r="F46" t="s">
         <v>141</v>
       </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
       <c r="H46" t="s">
         <v>147</v>
+      </c>
+      <c r="I46" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2459,8 +2498,17 @@
       <c r="F47" t="s">
         <v>143</v>
       </c>
+      <c r="G47" t="s">
+        <v>164</v>
+      </c>
       <c r="H47" t="s">
         <v>147</v>
+      </c>
+      <c r="I47" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2482,13 +2530,17 @@
       <c r="F48" t="s">
         <v>143</v>
       </c>
+      <c r="G48" t="s">
+        <v>149</v>
+      </c>
       <c r="H48" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H49" t="s">
-        <v>147</v>
+      <c r="I48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E5867-5719-4E77-AF17-0ED11AAE3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6719C-368D-4166-B7F6-356A109DDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="192">
   <si>
     <t>Video Title</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Fast-moving Palisades fire forces evacuations in Southern California</t>
   </si>
   <si>
-    <t>Fire &amp;amp; Ash: Devastation in L.A - Full Broadcast | Dateline</t>
-  </si>
-  <si>
     <t>Horses rescued from massive California fires</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Unprecedented wildfires scorch Pacific Palisades in California</t>
   </si>
   <si>
-    <t>Vet&amp;#39;s brilliant method to protect home from wildfire</t>
-  </si>
-  <si>
     <t>Video shows Pacific Palisades residents escaping the California wildfires</t>
   </si>
   <si>
@@ -507,12 +501,6 @@
   </si>
   <si>
     <t>Reporting from Lake Avenue; Elliot Middle School</t>
-  </si>
-  <si>
-    <t>Yes, long video</t>
-  </si>
-  <si>
-    <t>Long video</t>
   </si>
   <si>
     <t xml:space="preserve">Started around Pedro Marada Dr., 10:30 a.m. </t>
@@ -558,9 +546,6 @@
     <t>Sunset/Alma Real Drive</t>
   </si>
   <si>
-    <t>Timings / Locations / Notes</t>
-  </si>
-  <si>
     <t>Sunset Boulevard at Chautauqua,  Rivas Canyon, Rustic Lane, Sunset Boulevard from the 405 freeway, Sylmar, evacuated at midnight last night from Santa Clarita</t>
   </si>
   <si>
@@ -595,6 +580,39 @@
   </si>
   <si>
     <t>Reporting around 2:30 p.m., Sunset Blvd.</t>
+  </si>
+  <si>
+    <t>Vet's brilliant method to protect home from wildfire</t>
+  </si>
+  <si>
+    <t>Fire &amp; Ash: Devastation in L.A - Full Broadcast | Dateline</t>
+  </si>
+  <si>
+    <t>Long video. AI assistance used to parse transcript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timings / Locations </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Traffic, abandoned cars, changing information, cell service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1190 North Padra Mora Drive (fire origin), reported at 10:30 a.m. Residents begin packing / leaving around 12:00. </t>
+  </si>
+  <si>
+    <t>Fire reported at 10:30 a.m. North Padra Mora Dr (fire origin). Evacuation warnings in effect for Rustic Canyon to Topanga Canyon, as well as Sunset Mesa</t>
+  </si>
+  <si>
+    <t>Fire jumping roads, PCH closed</t>
+  </si>
+  <si>
+    <t>Traffice, fire jumped road, downed power lines and trees</t>
+  </si>
+  <si>
+    <t>Ignition at 10:30 a.m., 12:30 p.m. residents free / gridlock, assisted living facility evacuated</t>
   </si>
 </sst>
 </file>
@@ -996,27 +1014,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="86.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="163.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,1511 +1055,1523 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
         <v>150</v>
       </c>
-      <c r="J11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" t="s">
+        <v>148</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" t="s">
+        <v>148</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
         <v>138</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" t="s">
-        <v>157</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" t="s">
-        <v>150</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39" t="s">
-        <v>158</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" t="s">
-        <v>150</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="G48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" t="s">
-        <v>150</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" t="s">
-        <v>147</v>
-      </c>
-      <c r="I46" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" t="s">
-        <v>164</v>
-      </c>
-      <c r="H47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" t="s">
-        <v>150</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2603,19 +2634,36 @@
     <hyperlink ref="G19" r:id="rId55" xr:uid="{E8ADD3DC-7BED-42A4-8F7C-41BD237CA1B6}"/>
     <hyperlink ref="G20" r:id="rId56" xr:uid="{2BA28F13-595C-439D-8FCC-D8CDA71ADBEE}"/>
     <hyperlink ref="G21" r:id="rId57" xr:uid="{438BD8D7-ED95-4586-B826-2FBE21601DF5}"/>
-    <hyperlink ref="G22" r:id="rId58" xr:uid="{BB75DFB6-5586-467F-A113-A267A3A0B22F}"/>
-    <hyperlink ref="G23" r:id="rId59" xr:uid="{2F50E3F6-20D7-4441-8DEF-7519399E7D3E}"/>
-    <hyperlink ref="G24" r:id="rId60" xr:uid="{85F39CE1-8FE0-40F1-929B-7E10CFB67039}"/>
-    <hyperlink ref="G25" r:id="rId61" xr:uid="{2C873F57-1F64-4FA1-8C2C-60FA87FD199E}"/>
-    <hyperlink ref="G27" r:id="rId62" xr:uid="{DFD010D0-23FB-4896-BF92-5FCBEEAF75D1}"/>
-    <hyperlink ref="C11" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C10" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C8" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C7" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId68" xr:uid="{71AC410F-95C8-41B0-9454-28B9A392187C}"/>
+    <hyperlink ref="G23" r:id="rId58" xr:uid="{2F50E3F6-20D7-4441-8DEF-7519399E7D3E}"/>
+    <hyperlink ref="G24" r:id="rId59" xr:uid="{85F39CE1-8FE0-40F1-929B-7E10CFB67039}"/>
+    <hyperlink ref="G25" r:id="rId60" xr:uid="{2C873F57-1F64-4FA1-8C2C-60FA87FD199E}"/>
+    <hyperlink ref="G27" r:id="rId61" xr:uid="{DFD010D0-23FB-4896-BF92-5FCBEEAF75D1}"/>
+    <hyperlink ref="C11" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C10" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId67" xr:uid="{71AC410F-95C8-41B0-9454-28B9A392187C}"/>
+    <hyperlink ref="G28" r:id="rId68" xr:uid="{9172B33D-12EF-4214-8BCB-F1B7E7DF68A9}"/>
+    <hyperlink ref="G29" r:id="rId69" xr:uid="{27C93934-62EB-4C50-A69D-17294609D64B}"/>
+    <hyperlink ref="G30" r:id="rId70" xr:uid="{54B532B1-7047-4C37-96AE-5F8A859E2AA7}"/>
+    <hyperlink ref="G31" r:id="rId71" xr:uid="{AFC13441-F12F-4398-89E1-FD660F782F9A}"/>
+    <hyperlink ref="G32" r:id="rId72" xr:uid="{76ABCE0D-1EB7-414C-B288-280D82CAADC2}"/>
+    <hyperlink ref="G33" r:id="rId73" xr:uid="{EA87C3EE-D402-4677-B9BD-64E86EDF8563}"/>
+    <hyperlink ref="G34" r:id="rId74" xr:uid="{17A606DF-4CAD-4405-A09E-84A472DAE865}"/>
+    <hyperlink ref="G35" r:id="rId75" xr:uid="{B8191D49-48D5-471F-B320-40438C23FCF1}"/>
+    <hyperlink ref="G36" r:id="rId76" xr:uid="{B60401CA-0130-4443-B106-DBECA0C89A79}"/>
+    <hyperlink ref="G37" r:id="rId77" xr:uid="{098ACD86-04E8-473C-9D7E-18A98C594A15}"/>
+    <hyperlink ref="G39" r:id="rId78" xr:uid="{AB7FF746-96B5-496E-9381-78F077ED6993}"/>
+    <hyperlink ref="G40" r:id="rId79" xr:uid="{6E6E902C-5A97-48FE-9E25-86A7DFF0E253}"/>
+    <hyperlink ref="G41" r:id="rId80" xr:uid="{6A49E107-DD86-40C6-ABE7-A44EB2337798}"/>
+    <hyperlink ref="G42" r:id="rId81" xr:uid="{C0E3872E-A55D-45E8-87C6-07386AE90501}"/>
+    <hyperlink ref="G43" r:id="rId82" xr:uid="{B07667DD-9CB1-49B4-BE0A-8F35A152B81E}"/>
+    <hyperlink ref="G45" r:id="rId83" xr:uid="{2A7A78EE-1CCD-4E66-8CA0-49F4F91F8BD8}"/>
+    <hyperlink ref="G48" r:id="rId84" xr:uid="{7651D878-B8DC-4AA6-980F-4FA0E3C23441}"/>
+    <hyperlink ref="G22" r:id="rId85" xr:uid="{BB75DFB6-5586-467F-A113-A267A3A0B22F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId86"/>
 </worksheet>
 </file>
--- a/GIRS/video_level_unique_videos_categorized.xlsx
+++ b/GIRS/video_level_unique_videos_categorized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6719C-368D-4166-B7F6-356A109DDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D694C8-FF1C-419E-BD94-4732FA59FE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="194">
   <si>
     <t>Video Title</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>Ignition at 10:30 a.m., 12:30 p.m. residents free / gridlock, assisted living facility evacuated</t>
+  </si>
+  <si>
+    <t>11:10 a.m.: residents start evacuating</t>
+  </si>
+  <si>
+    <t>Traffic, fire engines blocked, Topanga Canyon closed, people leaving on foot, fire jumping PCH, rapidly evolving conditions</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1023,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="49" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J39" sqref="A1:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,7 +1036,7 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="124.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="163.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1863,8 +1869,20 @@
       <c r="F26" t="s">
         <v>139</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="H26" t="s">
         <v>145</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2662,8 +2680,9 @@
     <hyperlink ref="G45" r:id="rId83" xr:uid="{2A7A78EE-1CCD-4E66-8CA0-49F4F91F8BD8}"/>
     <hyperlink ref="G48" r:id="rId84" xr:uid="{7651D878-B8DC-4AA6-980F-4FA0E3C23441}"/>
     <hyperlink ref="G22" r:id="rId85" xr:uid="{BB75DFB6-5586-467F-A113-A267A3A0B22F}"/>
+    <hyperlink ref="G26" r:id="rId86" xr:uid="{C56E1251-D053-4CE9-853F-125BC44A9B69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId86"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
 </worksheet>
 </file>